--- a/EVENT_MANAGEMENT_APP/CUT/CODE_INSPECTION_LOG/Code_Review_Checklist_.EMA_group2.xlsx
+++ b/EVENT_MANAGEMENT_APP/CUT/CODE_INSPECTION_LOG/Code_Review_Checklist_.EMA_group2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mujmanipal.sharepoint.com/sites/Capgemini-94-C-Linux-B7-FT-Eventmanagementapp-Group2/Shared Documents/Group 2 -Event management app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD06719A-765A-43EC-8B94-805B93676327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED0452F-0F2E-44BD-8773-308B8DFCA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>Name of the review module/ object (if applicable)</t>
   </si>
   <si>
-    <t>SportsManagementSystem/CUT/Code/obj</t>
+    <t>EventManagementApp/EventMangementApp/CUT/CODE/OBJ</t>
   </si>
   <si>
     <t>Copyright @ Altran Technologies India Pvt. Ltd 2019.  All rights reserved.</t>
@@ -992,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1127,6 +1127,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1459,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1470,14 +1476,14 @@
       <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1517,116 +1523,116 @@
       <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1641,20 +1647,20 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="1"/>
       <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -1728,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08601DC6-D034-4B68-9F57-53839991F8AB}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1768,12 +1774,12 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="31"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="31"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -1854,10 +1860,10 @@
     </row>
     <row r="5" spans="1:26" ht="26.1">
       <c r="A5" s="31"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1888,12 +1894,12 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="31"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="72"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
@@ -1918,12 +1924,12 @@
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1">
       <c r="A7" s="31"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -1948,14 +1954,14 @@
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1">
       <c r="A8" s="31"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="63">
+      <c r="C8" s="72"/>
+      <c r="D8" s="65">
         <v>-1</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -2064,14 +2070,14 @@
     </row>
     <row r="12" spans="1:26" ht="15" thickTop="1">
       <c r="A12" s="36"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="I12" s="37"/>
       <c r="J12" s="38"/>
       <c r="K12" s="36"/>
@@ -2093,14 +2099,14 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="31"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="31"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
@@ -2373,14 +2379,14 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="31"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="76"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="31"/>
       <c r="I21" s="33" t="s">
         <v>34</v>
@@ -2405,14 +2411,14 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="31"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="76"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="31"/>
       <c r="I22" s="33" t="s">
         <v>34</v>
@@ -2551,14 +2557,14 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="31"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="76"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="31"/>
       <c r="I26" s="33" t="s">
         <v>34</v>
@@ -2763,14 +2769,14 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="31"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="76"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="31"/>
       <c r="I32" s="33" t="s">
         <v>34</v>
@@ -2867,14 +2873,14 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="31"/>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="76"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="31"/>
       <c r="I35" s="33" t="s">
         <v>34</v>
@@ -3433,14 +3439,14 @@
     </row>
     <row r="51" spans="1:26" ht="15" thickTop="1">
       <c r="A51" s="31"/>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
       <c r="H51" s="31"/>
       <c r="I51" s="33" t="s">
         <v>34</v>
@@ -3465,14 +3471,14 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="31"/>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="76"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="78"/>
       <c r="H52" s="31"/>
       <c r="I52" s="33" t="s">
         <v>34</v>
@@ -3719,14 +3725,14 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="31"/>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="76"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="78"/>
       <c r="H59" s="31"/>
       <c r="I59" s="33" t="s">
         <v>34</v>
@@ -30267,11 +30273,11 @@
     <row r="4" spans="1:26" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -58189,12 +58195,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E6C265683CD1D4EAD2FD6A3F91B896E" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36aed4320926494227bd8073caf52520">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27f10d71-c8e3-48e6-be51-4f44b2754ee2" xmlns:ns3="9ebb10cb-a814-43e4-9d65-0d4c5bdd0af8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5199e173f2e94c3cbc5176935e267b2" ns2:_="" ns3:_="">
     <xsd:import namespace="27f10d71-c8e3-48e6-be51-4f44b2754ee2"/>
@@ -58377,7 +58377,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -58386,14 +58386,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D8329D-ECC4-4CE4-ADDD-6451F8267A95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FDB7DF-CCCF-4FA4-BB27-369191EFC54F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FDB7DF-CCCF-4FA4-BB27-369191EFC54F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB640830-13C0-46CE-9DA0-539B876F2F39}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB640830-13C0-46CE-9DA0-539B876F2F39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D8329D-ECC4-4CE4-ADDD-6451F8267A95}"/>
 </file>